--- a/Excel/EquipStrengthConfig.xlsx
+++ b/Excel/EquipStrengthConfig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="27">
   <si>
     <t>_id</t>
   </si>
@@ -46,7 +46,7 @@
     <t>2,3,4</t>
   </si>
   <si>
-    <t>2,2,2</t>
+    <t>3,3,3</t>
   </si>
   <si>
     <t>2</t>
@@ -55,13 +55,16 @@
     <t>1,5</t>
   </si>
   <si>
-    <t>20,2</t>
+    <t>20,1</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
-    <t>1,1,1</t>
+    <t>1,2,3,4</t>
+  </si>
+  <si>
+    <t>10,1,1,1</t>
   </si>
   <si>
     <t>4</t>
@@ -83,6 +86,12 @@
   </si>
   <si>
     <t>9</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5</t>
+  </si>
+  <si>
+    <t>10,1,1,1,1</t>
   </si>
   <si>
     <t>10</t>
@@ -1054,7 +1063,7 @@
   <dimension ref="A1:XFB15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1166,10 +1175,10 @@
         <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="XFA8" s="3"/>
       <c r="XFB8" s="3"/>
@@ -1178,16 +1187,16 @@
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E9" t="s">
         <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="XFA9" s="3"/>
       <c r="XFB9" s="3"/>
@@ -1196,16 +1205,16 @@
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="XFA10" s="3"/>
       <c r="XFB10" s="3"/>
@@ -1214,16 +1223,16 @@
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="XFA11" s="3"/>
       <c r="XFB11" s="3"/>
@@ -1232,16 +1241,16 @@
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E12" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="XFA12" s="3"/>
       <c r="XFB12" s="3"/>
@@ -1250,16 +1259,16 @@
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E13" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="XFA13" s="3"/>
       <c r="XFB13" s="3"/>
@@ -1268,16 +1277,16 @@
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E14" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="F14" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="XFA14" s="3"/>
       <c r="XFB14" s="3"/>
@@ -1286,16 +1295,16 @@
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E15" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F15" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="XFA15" s="3"/>
       <c r="XFB15" s="3"/>
